--- a/story/主线剧情/main/level_main_07-02_end.xlsx
+++ b/story/主线剧情/main/level_main_07-02_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="790">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1598,6 +1601,798 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ケルシー"]  ミスター・ウェイが預かっているはずの、彼の遺品をお借りしたいのですが。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uptown Lungmen 7:20 PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  *Pant* *pant*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...You’re pretty serious about this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Real unexpected. Never would’ve thought... that you’d be able to make me bleed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  We... have never... been able to walk away... from our past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma, you’ve always been a part of this city. But... not me. I’ve always been running.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I don’t think I’ll ever be able to stand this place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  It turned into another one of these in the end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I can’t stop you. Go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Sorry, Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  After I’m gone, please go to the slums for me. The people there are panicked and confused. Someone from the L.G.D. has to protect them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  If some Infected kids give you a toy bear...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Keep it. An Ursus girl named Misha taught them how to make those bears. She died, because we failed her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Okay. I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’m sorry. I owe you one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don’t need your apologies. Honestly, you’re no good at them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...I think we’re done here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Go! And don’t come back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...Take care of yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  “Can’t stand this place?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...How many people care about this city as much as you do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Bullshit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Inspector Hoshiguma!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  ...Huh? Inspector, y-you’re hurt? Who could have...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Oh, yes, we just saw, err, Madame Ch’en——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Oh, that, sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Do you guys have a second to talk?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Inspector... you’re disobeying orders too?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...I wouldn’t put it that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Get out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Yes, Lord Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I told you... not to call me that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  As you wish. We await your orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Miss Kal'tsit and Young Amiya, before you speak, could I have a word with him?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Yes, go ahead, Miss Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  All yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  We’ve been together for years now, Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Why talk about this— Why now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  One look in your eyes and I can tell what you’re thinking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Now, now. I’ve always been able to tell.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I know Lungmen means the world to you. I know all that you’ve given her. I know about the dreams you have for her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No, Fumizuki...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But this, today, this isn’t what you want, is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ah, gomen. I’m not referring to our current dilemma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  What I mean is... this prosperity that you’ve given everything for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  You lost two loved ones. Actually, I think you said it was three. Maybe dozens?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Surely you couldn’t bear to lose your niece as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She loathes the Shadow Guard. If I send them to retrieve her, she will fight them to the death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  No, Wei Yenwu... That’s not what I mean.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Won’t you regret it? If you let them both die in some foreign city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  So what if they're Infected? Are they not your nieces?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  If we had children of our own, is this how you would treat them...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  All that I’ve done, I’ve done for the sake of our land. I never intended for Ch'en Hui-chieh to do my work for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  But that’s how she is!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  No. Keeping the truth from her only deepens the cut. It only makes her feel like she doesn’t belong here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Your expectations of her, they’re too distant, and too difficult.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But can I stop, at this point?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I have struggled against the men behind me and the city below me for so long, and this is all I have to show for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Would Lungmen allow me to stop?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  That is what she wanted. To get to the source of our problems. She wanted to change this city into something completely unlike the city under my rule.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  All I did was teach her how to get there, what she would have to do, and what she would have to give up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  All right, that’s enough rationalizing. You’re giving me a headache.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I’ll go bring her home myself. I won’t sit back and watch her die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I will do what you cannot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Nonsense! I won’t allow it...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I have plans to bring her back. And you, Fumizuki, are not to set foot outside this building.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Oh? You’ll stop me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Damare, kono yarou!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Whew.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Huh? Doctor, what did Miss Fumizuki say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s been a long time since I’ve heard such angry Higashinese.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Have you forgotten who I am, Wei Yenwu?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Even I have my limits, Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Have you forgotten who you are?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Doctor, I think...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  (Mr. Wei might really care for Miss Fumizuki?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (The same may also go for Fumizuki. Maybe...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Now then, on to our friends from Rhodes Island. How much will it cost for you to help Lungmen, and our Ch'en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I’ll cover it myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You’re really going to hire us like this, Miss Fumizuki?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  I am.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  It may be improper to say, but my husband is not exactly in top form today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Or I might say, our opponent’s plans have gone beyond anything we might have predicted, and included all that he holds dear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  They have a complete understanding of both Lungmen, and Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, that’s enough!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Who are you to say what’s enough?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Doctor, name your price. I can pay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I understand everything you’ve said here, Miss Fumizuki. And money won’t be necessary. But I need you two to hear me out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Maybe this isn’t the place to say it, but if I can speak freely, Lungmen needs some outside assistance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Can I continue, Miss Fumizuki?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  By all means. I don’t let words get to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Nonsense...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rhodes Island is only a pharmaceutical company.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But the world is a tough place. It doesn’t let up on any of us. Especially a pharmaceutical company like ours that tends to make a lot of enemies be it in business, geopolitics, or otherwise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We wander the cracks between countries because we have no other choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  When all the forces of the world align to put pressure on us, we need our own special methods to handle them...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But if our methods are to work— We need the forces acting against us to have a shred of sense left in their thick skulls.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  So when there comes a day like today, where anything could happen, Rhodes Island has to be ready with the right response.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Get to the point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I have a proposal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I hope it’s a good one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m not sure if I should be disclosing this information to you, Mr. Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You must know, with Lungmen’s strength and your talents, you could annihilate Rhodes Island with a snap of your fingers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No matter how advanced our equipment may be, there is nothing we could do against your forces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If we act against you, Rhodes Island is as good as dead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Go on. Dr. Kal’tsit, Miss Amiya, rest assured I have no energy to direct at Rhodes Island anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  So please, proceed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Very well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  When we first met, Mr. Wei, you were very curious about our military capabilities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I can admit now, as I just said, Rhodes Island is no match for Lungmen in this respect.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  However, no matter how strong a force may be, it can be limited by the circumstances it finds itself in. It’s largely a difference of degree.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even your men can’t project power with their hands tied. Even if you step onto the battlefield personally, the enemy still has something to use against you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The truth is, a colleague of mine once saw the Duke of Kashchey at a fundraising banquet with his adopted daughter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This wasn’t a slave market or some noble bacchanal. It was an event for those who represent the many movers and shakers of our world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Continue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m sure you can guess what happened next, Mr. Wei. Many young people proved their value that night, with the ideas and theories that they espoused—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But Talulah did not. Neither my colleagues nor I ever expected that she would become the leader of Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  In fact... we should have realized that the Duke of Kashchey only shows himself when necessary, to do what is necessary. Otherwise, he stays out of sight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Kashchey won’t tip his hand in exchange for assistance, and neither will Talulah. I’m sure you know their relationship much better than we do, Mr. Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Duke of Kashchey never made her a slave or a hostage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She is his successor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Oh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Your observations confirm my suspicions, Dr. Kal'tsit. Talulah is Kashchey’s successor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Correct. Mr. Wei...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The Duke of Kashchey knows what you have, and what you’re capable of. Talulah may as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You can leave this in our hands now, Mr. Wei. We have what it takes to handle this situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Like Amiya told you before, the official agreement between Lungmen and Rhodes Island is over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  By now, the Rhodes Island landship has left Lungmen’s port. What we do from here on has nothing to do with Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Is that acceptable, Amiya?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Mr. Wei. We... won’t concern ourselves with the future of Lungmen, or your personal business.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But all this is the result of someone conspiring to exploit the Infected, and we will fight it with all our might.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If you’ll permit us to act, and if you can promise you won’t act against us in any way——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then the battle to come is our battle, Rhodes Island’s battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t rely on the Infected. I don’t trust the Infected. The only difference between you and Reunion is that you haven’t turned against Lungmen... yet. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  What was Reunion like before? Even if we don’t remember, someone does. They weren’t anything like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You can dress up your schemes in fancy words, just as Reunion can shout from the rooftops that they will be the ones to deliver the Infected from their fate. In the end, they still ended up being cannon fodder for Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  In short order, Ursus will snuff out the fire that is Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Will you be the next Reunion? Who can say? When will you bare your fangs and turn against us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  What’s more, I doubt you have the strength to deal with Kashchey’s successor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  That Duke of Kashchey... only Lungmen has successfully opposed him over all these years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Mr. Wei, you intend to personally lead your forces to attack the Chernobog core city, correct?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t make blind conjectures.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What you just told me, Mr. Wei, is revealing. You think you’re the only one who can handle this situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s true that Lungmen has the raw power to do it, and you’ve also overcome the machinations of Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And this time, you intend to sacrifice yourself to nullify the declaration of war on Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As Miss Fumizuki said, you feel you’ve betrayed your principles, and you hope to end it all with your death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I’ve made so many mistakes. My death can’t pay for them all. I don’t even know who I’d be paying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Nevertheless, Mr. Wei, are you so certain that, after your death, no one will bear you any ill will?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Lungmen is strategically important to Yen. Thanks to my protection, it will continue to prosper.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I was referring to Lady Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  (Dr. Kal'tsit... Show some tact!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Dr. Kal’tsit?! What are you saying?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I meant what I said, Mr. Wei. I’m afraid your wife will suffer because of your actions. Even if you’re dead, she is your widow. She’ll still know everything you knew.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Since someone is forcing you to act against your will, I believe, this sort of thing... is to be expected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I have a feeling that particular individual won’t be so magnanimous.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  That’s enough, Dr. Kal’tsit! You’re way out of line. I can’t...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You’re saying that even if I do this, I still won’t be able to protect Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And it may not end with Miss Fumizuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  ...I can go too. Death is the worst that can happen...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  *Sigh*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Speak, Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  For the sake of your beloved city... And your beloved people...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I am begging you, Lord Wei. Leave this to the experts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We may be powerless against a standing army, but we know the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We know what they want, and what they don’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Only the Infected can face the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  So, what do you want? Leader of Rhodes Island, Dr. Kal'tsit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You’re not a charity. Attacking the core city is tantamount to throwing an egg at a boulder. It will be ruinously expensive, and may be utterly futile.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You understand our position, Mr. Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  At this point, it benefits us both to speak plainly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  More than your agreement with our battle plan, Mr. Wei, we need your guarantee.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Considering you may change your mind in the future... We need your promise, for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Because I believe that Lungmen and your family, and Madame Ch'en, are worth that promise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We don’t need your money, Miss Fumizuki. Your kindness and your attitude toward the Infected are enough for us to execute this operation free of charge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  (Little rabbit...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  (Gives a thumbs-up)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...??
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I agree. Until the end of the Lungmen-Chernobog conflict, we, Lungmen, will not in any way interfere in Rhodes Island’s affairs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And it looks to me like the good Dr. Kal'tsit has more yet to say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Speak up. I can endure it, for the time being. Because I need Rhodes Island to save one very specific Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Then, I have another proposal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Name your price.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Twenty years ago, Edward Artorius, father of Talulah Artorius, died here in Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I would like Mr. Wei to lend us his remains.
 </t>
   </si>
   <si>
@@ -2732,13 +3527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,2194 +3543,2794 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>426</v>
+      </c>
+      <c r="D30" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D31" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>428</v>
+      </c>
+      <c r="D32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
+        <v>429</v>
+      </c>
+      <c r="D33" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D36" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>434</v>
+      </c>
+      <c r="D38" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>435</v>
+      </c>
+      <c r="D39" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" t="s">
+        <v>436</v>
+      </c>
+      <c r="D40" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>437</v>
+      </c>
+      <c r="D41" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" t="s">
+        <v>438</v>
+      </c>
+      <c r="D42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" t="s">
+        <v>442</v>
+      </c>
+      <c r="D46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>444</v>
+      </c>
+      <c r="D48" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>445</v>
+      </c>
+      <c r="D49" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" t="s">
+        <v>446</v>
+      </c>
+      <c r="D50" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" t="s">
+        <v>447</v>
+      </c>
+      <c r="D51" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
+      <c r="D52" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>451</v>
+      </c>
+      <c r="D55" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" t="s">
+        <v>452</v>
+      </c>
+      <c r="D56" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>454</v>
+      </c>
+      <c r="D58" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" t="s">
+        <v>455</v>
+      </c>
+      <c r="D59" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" t="s">
+        <v>457</v>
+      </c>
+      <c r="D61" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" t="s">
+        <v>458</v>
+      </c>
+      <c r="D62" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" t="s">
+        <v>459</v>
+      </c>
+      <c r="D63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" t="s">
+        <v>460</v>
+      </c>
+      <c r="D64" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" t="s">
+        <v>461</v>
+      </c>
+      <c r="D65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" t="s">
+        <v>462</v>
+      </c>
+      <c r="D66" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" t="s">
+        <v>463</v>
+      </c>
+      <c r="D67" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" t="s">
+        <v>464</v>
+      </c>
+      <c r="D68" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" t="s">
+        <v>465</v>
+      </c>
+      <c r="D69" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" t="s">
+        <v>466</v>
+      </c>
+      <c r="D70" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" t="s">
+        <v>467</v>
+      </c>
+      <c r="D71" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" t="s">
+        <v>468</v>
+      </c>
+      <c r="D72" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" t="s">
+        <v>469</v>
+      </c>
+      <c r="D73" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" t="s">
+        <v>470</v>
+      </c>
+      <c r="D74" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" t="s">
+        <v>471</v>
+      </c>
+      <c r="D75" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" t="s">
+        <v>472</v>
+      </c>
+      <c r="D76" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>278</v>
+      </c>
+      <c r="C78" t="s">
+        <v>474</v>
+      </c>
+      <c r="D78" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>475</v>
+      </c>
+      <c r="D79" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" t="s">
+        <v>476</v>
+      </c>
+      <c r="D80" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" t="s">
+        <v>477</v>
+      </c>
+      <c r="D81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" t="s">
+        <v>478</v>
+      </c>
+      <c r="D82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" t="s">
+        <v>480</v>
+      </c>
+      <c r="D84" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" t="s">
+        <v>481</v>
+      </c>
+      <c r="D85" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" t="s">
+        <v>482</v>
+      </c>
+      <c r="D86" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" t="s">
+        <v>483</v>
+      </c>
+      <c r="D87" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" t="s">
+        <v>484</v>
+      </c>
+      <c r="D88" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" t="s">
+        <v>485</v>
+      </c>
+      <c r="D89" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" t="s">
+        <v>486</v>
+      </c>
+      <c r="D90" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" t="s">
+        <v>487</v>
+      </c>
+      <c r="D91" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" t="s">
+        <v>488</v>
+      </c>
+      <c r="D92" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" t="s">
+        <v>490</v>
+      </c>
+      <c r="D94" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" t="s">
+        <v>491</v>
+      </c>
+      <c r="D95" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" t="s">
+        <v>492</v>
+      </c>
+      <c r="D96" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>493</v>
+      </c>
+      <c r="D97" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" t="s">
+        <v>494</v>
+      </c>
+      <c r="D98" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" t="s">
+        <v>495</v>
+      </c>
+      <c r="D99" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>496</v>
+      </c>
+      <c r="D100" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" t="s">
+        <v>497</v>
+      </c>
+      <c r="D101" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" t="s">
+        <v>498</v>
+      </c>
+      <c r="D102" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D103" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" t="s">
+        <v>500</v>
+      </c>
+      <c r="D104" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" t="s">
+        <v>501</v>
+      </c>
+      <c r="D105" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" t="s">
+        <v>502</v>
+      </c>
+      <c r="D106" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" t="s">
+        <v>503</v>
+      </c>
+      <c r="D107" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" t="s">
+        <v>504</v>
+      </c>
+      <c r="D108" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" t="s">
+        <v>505</v>
+      </c>
+      <c r="D109" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110" t="s">
+        <v>506</v>
+      </c>
+      <c r="D110" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" t="s">
+        <v>507</v>
+      </c>
+      <c r="D111" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" t="s">
+        <v>508</v>
+      </c>
+      <c r="D112" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" t="s">
+        <v>509</v>
+      </c>
+      <c r="D113" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" t="s">
+        <v>510</v>
+      </c>
+      <c r="D114" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" t="s">
+        <v>511</v>
+      </c>
+      <c r="D115" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" t="s">
+        <v>512</v>
+      </c>
+      <c r="D116" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117" t="s">
+        <v>513</v>
+      </c>
+      <c r="D117" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>318</v>
+      </c>
+      <c r="C118" t="s">
+        <v>514</v>
+      </c>
+      <c r="D118" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" t="s">
+        <v>515</v>
+      </c>
+      <c r="D119" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>320</v>
+      </c>
+      <c r="C120" t="s">
+        <v>516</v>
+      </c>
+      <c r="D120" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" t="s">
+        <v>517</v>
+      </c>
+      <c r="D121" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>322</v>
+      </c>
+      <c r="C122" t="s">
+        <v>518</v>
+      </c>
+      <c r="D122" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" t="s">
+        <v>519</v>
+      </c>
+      <c r="D123" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>324</v>
+      </c>
+      <c r="C124" t="s">
+        <v>520</v>
+      </c>
+      <c r="D124" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" t="s">
+        <v>521</v>
+      </c>
+      <c r="D125" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>325</v>
+      </c>
+      <c r="C126" t="s">
+        <v>522</v>
+      </c>
+      <c r="D126" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>326</v>
+      </c>
+      <c r="C127" t="s">
+        <v>523</v>
+      </c>
+      <c r="D127" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>327</v>
+      </c>
+      <c r="C128" t="s">
+        <v>524</v>
+      </c>
+      <c r="D128" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>328</v>
+      </c>
+      <c r="C129" t="s">
+        <v>525</v>
+      </c>
+      <c r="D129" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>329</v>
+      </c>
+      <c r="C130" t="s">
+        <v>526</v>
+      </c>
+      <c r="D130" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>330</v>
+      </c>
+      <c r="C131" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>331</v>
+      </c>
+      <c r="C132" t="s">
+        <v>528</v>
+      </c>
+      <c r="D132" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>332</v>
+      </c>
+      <c r="C133" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>333</v>
+      </c>
+      <c r="C134" t="s">
+        <v>530</v>
+      </c>
+      <c r="D134" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>334</v>
+      </c>
+      <c r="C135" t="s">
+        <v>531</v>
+      </c>
+      <c r="D135" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" t="s">
+        <v>532</v>
+      </c>
+      <c r="D136" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>336</v>
+      </c>
+      <c r="C137" t="s">
+        <v>533</v>
+      </c>
+      <c r="D137" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" t="s">
+        <v>534</v>
+      </c>
+      <c r="D138" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>338</v>
+      </c>
+      <c r="C139" t="s">
+        <v>535</v>
+      </c>
+      <c r="D139" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>339</v>
+      </c>
+      <c r="C140" t="s">
+        <v>536</v>
+      </c>
+      <c r="D140" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>340</v>
+      </c>
+      <c r="C141" t="s">
+        <v>537</v>
+      </c>
+      <c r="D141" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>341</v>
+      </c>
+      <c r="C142" t="s">
+        <v>538</v>
+      </c>
+      <c r="D142" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>342</v>
+      </c>
+      <c r="C143" t="s">
+        <v>539</v>
+      </c>
+      <c r="D143" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>343</v>
+      </c>
+      <c r="C144" t="s">
+        <v>540</v>
+      </c>
+      <c r="D144" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>344</v>
+      </c>
+      <c r="C145" t="s">
+        <v>541</v>
+      </c>
+      <c r="D145" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>345</v>
+      </c>
+      <c r="C146" t="s">
+        <v>542</v>
+      </c>
+      <c r="D146" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" t="s">
+        <v>543</v>
+      </c>
+      <c r="D147" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>347</v>
+      </c>
+      <c r="C148" t="s">
+        <v>544</v>
+      </c>
+      <c r="D148" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>348</v>
+      </c>
+      <c r="C149" t="s">
+        <v>545</v>
+      </c>
+      <c r="D149" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150" t="s">
+        <v>546</v>
+      </c>
+      <c r="D150" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>350</v>
+      </c>
+      <c r="C151" t="s">
+        <v>547</v>
+      </c>
+      <c r="D151" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>351</v>
+      </c>
+      <c r="C152" t="s">
+        <v>548</v>
+      </c>
+      <c r="D152" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>352</v>
+      </c>
+      <c r="C153" t="s">
+        <v>549</v>
+      </c>
+      <c r="D153" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>353</v>
+      </c>
+      <c r="C154" t="s">
+        <v>550</v>
+      </c>
+      <c r="D154" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>354</v>
+      </c>
+      <c r="C155" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" t="s">
+        <v>552</v>
+      </c>
+      <c r="D156" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" t="s">
+        <v>553</v>
+      </c>
+      <c r="D157" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>357</v>
+      </c>
+      <c r="C158" t="s">
+        <v>554</v>
+      </c>
+      <c r="D158" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>358</v>
+      </c>
+      <c r="C159" t="s">
+        <v>555</v>
+      </c>
+      <c r="D159" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>359</v>
+      </c>
+      <c r="C160" t="s">
+        <v>556</v>
+      </c>
+      <c r="D160" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>360</v>
+      </c>
+      <c r="C161" t="s">
+        <v>557</v>
+      </c>
+      <c r="D161" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>361</v>
+      </c>
+      <c r="C162" t="s">
+        <v>558</v>
+      </c>
+      <c r="D162" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>362</v>
+      </c>
+      <c r="C163" t="s">
+        <v>559</v>
+      </c>
+      <c r="D163" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>363</v>
+      </c>
+      <c r="C164" t="s">
+        <v>560</v>
+      </c>
+      <c r="D164" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>364</v>
+      </c>
+      <c r="C165" t="s">
+        <v>561</v>
+      </c>
+      <c r="D165" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>365</v>
+      </c>
+      <c r="C166" t="s">
+        <v>562</v>
+      </c>
+      <c r="D166" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" t="s">
+        <v>563</v>
+      </c>
+      <c r="D167" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>367</v>
+      </c>
+      <c r="C168" t="s">
+        <v>564</v>
+      </c>
+      <c r="D168" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>368</v>
+      </c>
+      <c r="C169" t="s">
+        <v>565</v>
+      </c>
+      <c r="D169" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" t="s">
+        <v>566</v>
+      </c>
+      <c r="D170" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>370</v>
+      </c>
+      <c r="C171" t="s">
+        <v>567</v>
+      </c>
+      <c r="D171" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>371</v>
+      </c>
+      <c r="C172" t="s">
+        <v>568</v>
+      </c>
+      <c r="D172" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>372</v>
+      </c>
+      <c r="C173" t="s">
+        <v>569</v>
+      </c>
+      <c r="D173" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" t="s">
+        <v>570</v>
+      </c>
+      <c r="D174" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" t="s">
+        <v>571</v>
+      </c>
+      <c r="D175" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" t="s">
+        <v>572</v>
+      </c>
+      <c r="D176" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>376</v>
+      </c>
+      <c r="C177" t="s">
+        <v>573</v>
+      </c>
+      <c r="D177" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>377</v>
+      </c>
+      <c r="C178" t="s">
+        <v>574</v>
+      </c>
+      <c r="D178" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>378</v>
+      </c>
+      <c r="C179" t="s">
+        <v>575</v>
+      </c>
+      <c r="D179" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" t="s">
+        <v>576</v>
+      </c>
+      <c r="D180" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>379</v>
+      </c>
+      <c r="C181" t="s">
+        <v>577</v>
+      </c>
+      <c r="D181" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>380</v>
+      </c>
+      <c r="C182" t="s">
+        <v>578</v>
+      </c>
+      <c r="D182" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" t="s">
+        <v>579</v>
+      </c>
+      <c r="D183" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" t="s">
+        <v>580</v>
+      </c>
+      <c r="D184" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" t="s">
+        <v>581</v>
+      </c>
+      <c r="D185" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" t="s">
+        <v>582</v>
+      </c>
+      <c r="D186" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>385</v>
+      </c>
+      <c r="C187" t="s">
+        <v>583</v>
+      </c>
+      <c r="D187" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188" t="s">
+        <v>301</v>
+      </c>
+      <c r="C188" t="s">
+        <v>521</v>
+      </c>
+      <c r="D188" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>386</v>
+      </c>
+      <c r="C189" t="s">
+        <v>584</v>
+      </c>
+      <c r="D189" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>387</v>
+      </c>
+      <c r="C190" t="s">
+        <v>585</v>
+      </c>
+      <c r="D190" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>388</v>
+      </c>
+      <c r="C191" t="s">
+        <v>586</v>
+      </c>
+      <c r="D191" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>389</v>
+      </c>
+      <c r="C192" t="s">
+        <v>587</v>
+      </c>
+      <c r="D192" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>390</v>
+      </c>
+      <c r="C193" t="s">
+        <v>588</v>
+      </c>
+      <c r="D193" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" t="s">
+        <v>589</v>
+      </c>
+      <c r="D194" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195" t="s">
+        <v>590</v>
+      </c>
+      <c r="D195" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196" t="s">
+        <v>591</v>
+      </c>
+      <c r="D196" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" t="s">
+        <v>592</v>
+      </c>
+      <c r="D197" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+      <c r="C198" t="s">
+        <v>593</v>
+      </c>
+      <c r="D198" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" t="s">
+        <v>594</v>
+      </c>
+      <c r="D199" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
         <v>201</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B200" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C48" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C50" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C52" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>255</v>
-      </c>
-      <c r="C56" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>259</v>
-      </c>
-      <c r="C60" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>260</v>
-      </c>
-      <c r="C61" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>264</v>
-      </c>
-      <c r="C65" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C70" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>270</v>
-      </c>
-      <c r="C71" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>271</v>
-      </c>
-      <c r="C72" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>272</v>
-      </c>
-      <c r="C73" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>275</v>
-      </c>
-      <c r="C76" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>276</v>
-      </c>
-      <c r="C77" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>278</v>
-      </c>
-      <c r="C79" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>279</v>
-      </c>
-      <c r="C80" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>280</v>
-      </c>
-      <c r="C81" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>281</v>
-      </c>
-      <c r="C82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>284</v>
-      </c>
-      <c r="C85" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>285</v>
-      </c>
-      <c r="C86" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>286</v>
-      </c>
-      <c r="C87" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>287</v>
-      </c>
-      <c r="C88" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>289</v>
-      </c>
-      <c r="C90" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>295</v>
-      </c>
-      <c r="C96" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>296</v>
-      </c>
-      <c r="C97" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>297</v>
-      </c>
-      <c r="C98" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>298</v>
-      </c>
-      <c r="C99" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>300</v>
-      </c>
-      <c r="C101" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>301</v>
-      </c>
-      <c r="C102" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" t="s">
-        <v>302</v>
-      </c>
-      <c r="C103" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" t="s">
-        <v>303</v>
-      </c>
-      <c r="C104" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>304</v>
-      </c>
-      <c r="C105" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>305</v>
-      </c>
-      <c r="C106" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>307</v>
-      </c>
-      <c r="C108" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>308</v>
-      </c>
-      <c r="C109" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>309</v>
-      </c>
-      <c r="C110" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>310</v>
-      </c>
-      <c r="C111" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>311</v>
-      </c>
-      <c r="C112" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>312</v>
-      </c>
-      <c r="C113" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" t="s">
-        <v>313</v>
-      </c>
-      <c r="C114" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" t="s">
-        <v>314</v>
-      </c>
-      <c r="C115" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" t="s">
-        <v>315</v>
-      </c>
-      <c r="C116" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>316</v>
-      </c>
-      <c r="C117" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" t="s">
-        <v>317</v>
-      </c>
-      <c r="C118" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>318</v>
-      </c>
-      <c r="C119" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" t="s">
-        <v>319</v>
-      </c>
-      <c r="C120" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>320</v>
-      </c>
-      <c r="C121" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>321</v>
-      </c>
-      <c r="C122" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>322</v>
-      </c>
-      <c r="C123" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" t="s">
-        <v>323</v>
-      </c>
-      <c r="C124" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" t="s">
-        <v>300</v>
-      </c>
-      <c r="C125" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" t="s">
-        <v>324</v>
-      </c>
-      <c r="C126" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" t="s">
-        <v>325</v>
-      </c>
-      <c r="C127" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" t="s">
-        <v>326</v>
-      </c>
-      <c r="C128" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>327</v>
-      </c>
-      <c r="C129" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
-        <v>328</v>
-      </c>
-      <c r="C130" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" t="s">
-        <v>329</v>
-      </c>
-      <c r="C131" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" t="s">
-        <v>330</v>
-      </c>
-      <c r="C132" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" t="s">
-        <v>331</v>
-      </c>
-      <c r="C133" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" t="s">
-        <v>332</v>
-      </c>
-      <c r="C134" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" t="s">
-        <v>334</v>
-      </c>
-      <c r="C136" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" t="s">
-        <v>335</v>
-      </c>
-      <c r="C137" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>336</v>
-      </c>
-      <c r="C138" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>337</v>
-      </c>
-      <c r="C139" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>338</v>
-      </c>
-      <c r="C140" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" t="s">
-        <v>339</v>
-      </c>
-      <c r="C141" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" t="s">
-        <v>340</v>
-      </c>
-      <c r="C142" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" t="s">
-        <v>341</v>
-      </c>
-      <c r="C143" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" t="s">
-        <v>342</v>
-      </c>
-      <c r="C144" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145" t="s">
-        <v>343</v>
-      </c>
-      <c r="C145" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
-        <v>344</v>
-      </c>
-      <c r="C146" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" t="s">
-        <v>345</v>
-      </c>
-      <c r="C147" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" t="s">
-        <v>346</v>
-      </c>
-      <c r="C148" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" t="s">
-        <v>347</v>
-      </c>
-      <c r="C149" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" t="s">
-        <v>348</v>
-      </c>
-      <c r="C150" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" t="s">
-        <v>350</v>
-      </c>
-      <c r="C152" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" t="s">
-        <v>351</v>
-      </c>
-      <c r="C153" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" t="s">
-        <v>352</v>
-      </c>
-      <c r="C154" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" t="s">
-        <v>353</v>
-      </c>
-      <c r="C155" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" t="s">
-        <v>354</v>
-      </c>
-      <c r="C156" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" t="s">
-        <v>355</v>
-      </c>
-      <c r="C157" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" t="s">
-        <v>356</v>
-      </c>
-      <c r="C158" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" t="s">
-        <v>357</v>
-      </c>
-      <c r="C159" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" t="s">
-        <v>358</v>
-      </c>
-      <c r="C160" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" t="s">
-        <v>359</v>
-      </c>
-      <c r="C161" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" t="s">
-        <v>360</v>
-      </c>
-      <c r="C162" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" t="s">
-        <v>361</v>
-      </c>
-      <c r="C163" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" t="s">
-        <v>362</v>
-      </c>
-      <c r="C164" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" t="s">
-        <v>363</v>
-      </c>
-      <c r="C165" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" t="s">
-        <v>364</v>
-      </c>
-      <c r="C166" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" t="s">
-        <v>365</v>
-      </c>
-      <c r="C167" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" t="s">
-        <v>366</v>
-      </c>
-      <c r="C168" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" t="s">
-        <v>367</v>
-      </c>
-      <c r="C169" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" t="s">
-        <v>368</v>
-      </c>
-      <c r="C170" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" t="s">
-        <v>369</v>
-      </c>
-      <c r="C171" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>173</v>
-      </c>
-      <c r="B172" t="s">
-        <v>370</v>
-      </c>
-      <c r="C172" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" t="s">
-        <v>371</v>
-      </c>
-      <c r="C173" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" t="s">
-        <v>372</v>
-      </c>
-      <c r="C174" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" t="s">
-        <v>373</v>
-      </c>
-      <c r="C175" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>177</v>
-      </c>
-      <c r="B176" t="s">
-        <v>374</v>
-      </c>
-      <c r="C176" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>178</v>
-      </c>
-      <c r="B177" t="s">
-        <v>375</v>
-      </c>
-      <c r="C177" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" t="s">
-        <v>376</v>
-      </c>
-      <c r="C178" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>180</v>
-      </c>
-      <c r="B179" t="s">
-        <v>377</v>
-      </c>
-      <c r="C179" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>181</v>
-      </c>
-      <c r="B180" t="s">
-        <v>300</v>
-      </c>
-      <c r="C180" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" t="s">
-        <v>378</v>
-      </c>
-      <c r="C181" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>183</v>
-      </c>
-      <c r="B182" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>184</v>
-      </c>
-      <c r="B183" t="s">
-        <v>380</v>
-      </c>
-      <c r="C183" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>185</v>
-      </c>
-      <c r="B184" t="s">
-        <v>381</v>
-      </c>
-      <c r="C184" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>186</v>
-      </c>
-      <c r="B185" t="s">
-        <v>382</v>
-      </c>
-      <c r="C185" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" t="s">
-        <v>383</v>
-      </c>
-      <c r="C186" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>188</v>
-      </c>
-      <c r="B187" t="s">
-        <v>384</v>
-      </c>
-      <c r="C187" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>126</v>
-      </c>
-      <c r="B188" t="s">
-        <v>300</v>
-      </c>
-      <c r="C188" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>385</v>
-      </c>
-      <c r="C189" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>386</v>
-      </c>
-      <c r="C190" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>387</v>
-      </c>
-      <c r="C191" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>388</v>
-      </c>
-      <c r="C192" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193" t="s">
-        <v>389</v>
-      </c>
-      <c r="C193" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194" t="s">
-        <v>390</v>
-      </c>
-      <c r="C194" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195" t="s">
-        <v>391</v>
-      </c>
-      <c r="C195" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>196</v>
-      </c>
-      <c r="B196" t="s">
-        <v>392</v>
-      </c>
-      <c r="C196" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" t="s">
-        <v>393</v>
-      </c>
-      <c r="C197" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198" t="s">
-        <v>394</v>
-      </c>
-      <c r="C198" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199" t="s">
-        <v>395</v>
-      </c>
-      <c r="C199" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" t="s">
-        <v>396</v>
-      </c>
       <c r="C200" t="s">
-        <v>590</v>
+        <v>595</v>
+      </c>
+      <c r="D200" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
